--- a/demonstrator/OST_Questions - Moldova exercise.xlsx
+++ b/demonstrator/OST_Questions - Moldova exercise.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Questions" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="answer" vbProcedure="false">List_values!$B$2:$B$13</definedName>
-    <definedName function="false" hidden="false" name="Answers" vbProcedure="false">List_values!$B$2:$B$13</definedName>
-    <definedName function="false" hidden="false" name="Answers2" vbProcedure="false">List_values!$B$2:$B$100</definedName>
-    <definedName function="false" hidden="false" name="BOX_LIST" vbProcedure="false">List_values!$A$2:$A$7</definedName>
-    <definedName function="false" hidden="false" name="qType" vbProcedure="false">List_values!$A$2:$A$7</definedName>
-    <definedName function="false" hidden="false" name="question_type" vbProcedure="false">List_values!$A$2:$A$7</definedName>
-    <definedName function="false" hidden="false" name="question_type2" vbProcedure="false">List_values!$A$2:$A$100</definedName>
-    <definedName function="false" hidden="false" name="qustion_type" vbProcedure="false">List_values!$A$2:$A$7</definedName>
+    <definedName function="false" hidden="false" name="answer" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Answers" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Answers2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="BOX_LIST" vbProcedure="false">List_values!$A$2:$A$6</definedName>
+    <definedName function="false" hidden="false" name="qType" vbProcedure="false">List_values!$A$2:$A$6</definedName>
+    <definedName function="false" hidden="false" name="question_type" vbProcedure="false">List_values!$A$2:$A$6</definedName>
+    <definedName function="false" hidden="false" name="question_type2" vbProcedure="false">List_values!$A$2:$A$99</definedName>
+    <definedName function="false" hidden="false" name="qustion_type" vbProcedure="false">List_values!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,113 +31,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t xml:space="preserve">control_name</t>
   </si>
   <si>
-    <t xml:space="preserve">value_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX_LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agree</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHECKBOX</t>
   </si>
   <si>
-    <t xml:space="preserve">Crisis management</t>
-  </si>
-  <si>
     <t xml:space="preserve">RADIO_BUTTON</t>
   </si>
   <si>
-    <t xml:space="preserve">Disagree</t>
-  </si>
-  <si>
     <t xml:space="preserve">RADIO_LINE</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't know</t>
-  </si>
-  <si>
     <t xml:space="preserve">SLIDER</t>
   </si>
   <si>
-    <t xml:space="preserve">Neutral</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEXT_FIELD</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not applicable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rescue service or responder to accidents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical/technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 - 5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - 10 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - 15 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 15 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trial Committee Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other, please indicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airborne and Terrestrial Situational Awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrowdTasker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VieWTerra Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFA -  Psychological First Aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trial Name</t>
   </si>
   <si>
@@ -270,25 +183,7 @@
     <t xml:space="preserve">Rate usefulness of the mini-exercise.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Please rate the usefulness of the mini-exercise and information flow training (if applicable). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If the answer is NOT USEFUL, please comment.</t>
-    </r>
+    <t xml:space="preserve">Please rate the usefulness of the mini-exercise and information flow training (if applicable). If the answer is NOT USEFUL, please comment.</t>
   </si>
   <si>
     <t xml:space="preserve">Rate quality of the mini-exercise.</t>
@@ -340,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,17 +270,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -416,13 +300,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -457,7 +334,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,19 +347,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,179 +378,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -697,12 +440,12 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
@@ -716,131 +459,131 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
@@ -849,45 +592,45 @@
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>55</v>
+      <c r="A4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3</v>
@@ -896,36 +639,36 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>55</v>
+      <c r="A5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>4</v>
@@ -934,39 +677,39 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>55</v>
+      <c r="A6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>5</v>
@@ -975,39 +718,39 @@
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>55</v>
+      <c r="A7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>6</v>
@@ -1016,42 +759,42 @@
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>55</v>
+      <c r="A8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="F8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>7</v>
@@ -1059,29 +802,29 @@
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
+      <c r="I8" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
